--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C2BE66-51E9-427B-AD5D-DF651E65A039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D07921-B3E6-4642-BBFE-B24E0CEF6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>formulas in Excel</t>
-  </si>
-  <si>
-    <t>run npx -y prettier@3.4.2 README.md | sha256sum</t>
   </si>
   <si>
     <t>value in the hidden input</t>
@@ -686,6 +683,9 @@
   </si>
   <si>
     <t>21049196c5c1b0fcd2f03c7c75312e28a28f14d30e1880a8f48056aa43a07126</t>
+  </si>
+  <si>
+    <t>run npx -y prettier@3.4.2</t>
   </si>
 </sst>
 </file>
@@ -758,10 +758,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>1696</v>
@@ -1152,10 +1152,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2">
         <v>354</v>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2">
         <v>39332</v>
@@ -1207,10 +1207,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1218,10 +1218,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2">
         <v>91718</v>
@@ -1240,10 +1240,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -1262,10 +1262,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -1273,10 +1273,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1284,10 +1284,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,10 +1295,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2">
         <v>22557</v>
@@ -1317,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2">
         <v>6378</v>
@@ -1328,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1339,10 +1339,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1350,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,10 +1361,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1372,10 +1372,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
@@ -1383,10 +1383,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2">
         <v>47</v>
@@ -1405,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -1416,10 +1416,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -1427,10 +1427,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1438,10 +1438,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1449,10 +1449,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1460,10 +1460,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2">
         <v>260</v>
@@ -1493,10 +1493,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1504,10 +1504,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -1515,10 +1515,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2">
         <v>10.1399458</v>
@@ -1537,10 +1537,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1559,10 +1559,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2">
         <v>29658</v>
@@ -1581,10 +1581,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2">
         <v>0.47518649486533598</v>
@@ -1603,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2">
         <v>22</v>
@@ -1614,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2">
         <v>173</v>
@@ -1625,7 +1625,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2">
         <v>10930</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2">
         <v>10829</v>
@@ -1647,7 +1647,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2">
         <v>53117</v>
@@ -1658,7 +1658,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2">
         <v>27925</v>
@@ -1669,10 +1669,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1680,10 +1680,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1691,10 +1691,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D07921-B3E6-4642-BBFE-B24E0CEF6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D649DAB-B341-48CC-BC55-330A105BF606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>Trigger the workflow and wait for it to complete</t>
   </si>
   <si>
-    <t>clean this Excel data</t>
-  </si>
-  <si>
     <t>How many unique students are there in the file</t>
   </si>
   <si>
@@ -342,13 +339,7 @@
     <t>Across all requests under</t>
   </si>
   <si>
-    <t>Use phonetic clustering algorithm</t>
-  </si>
-  <si>
     <t>What is the total sales value?</t>
-  </si>
-  <si>
-    <t>How many times does DX appear as a key?</t>
   </si>
   <si>
     <t xml:space="preserve">What is the text of the transcript </t>
@@ -686,6 +677,15 @@
   </si>
   <si>
     <t>run npx -y prettier@3.4.2</t>
+  </si>
+  <si>
+    <t>total margin for transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many units of </t>
+  </si>
+  <si>
+    <t>appear as a key?</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -755,14 +755,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,654 +1050,654 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
+      <c r="A1" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>112</v>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1696</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>116</v>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>39332</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>117</v>
+      <c r="C14" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>118</v>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>91718</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>119</v>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>121</v>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>122</v>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>123</v>
+      <c r="C22" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>22557</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>6378</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>125</v>
+      <c r="C25" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>124</v>
+      <c r="C26" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>126</v>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>127</v>
+      <c r="C28" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>129</v>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="C34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>133</v>
+      <c r="C35" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>134</v>
+      <c r="C36" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>136</v>
+      <c r="C38" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>137</v>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="C41" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>139</v>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>10.1399458</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>140</v>
+      <c r="C44" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>141</v>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>29658</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.47518649486533598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10829</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1">
+        <v>27925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.47518649486533598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2">
-        <v>10930</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10829</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="2">
-        <v>53117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="2">
-        <v>27925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>122</v>
+      <c r="C58" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D649DAB-B341-48CC-BC55-330A105BF606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF980D1-25EA-46F1-93ED-D7ED80204358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>column of the CSV file</t>
-  </si>
-  <si>
-    <t>Sort this JSON array</t>
   </si>
   <si>
     <t>convert it into a single JSON object</t>
@@ -457,9 +454,6 @@
     <t>http://127.0.0.1:8000/api</t>
   </si>
   <si>
-    <t>DYNAMIC END POINT</t>
-  </si>
-  <si>
     <t>import httpx
 model = "gpt-4o-mini"
 messages = [
@@ -637,9 +631,6 @@
     <t>What is the markdown content of the PDF</t>
   </si>
   <si>
-    <t>Retrieve the PDF file containing the student marks table</t>
-  </si>
-  <si>
     <t>SELECT post_id
 FROM (
     SELECT post_id
@@ -686,6 +677,15 @@
   </si>
   <si>
     <t>appear as a key?</t>
+  </si>
+  <si>
+    <t>https://daeb-2409-4072-6e45-1953-c9d6-9624-b787-cecb.ngrok-free.app/</t>
+  </si>
+  <si>
+    <t>marks of students who scored</t>
+  </si>
+  <si>
+    <t>Sort this JSON array of objects by the value of the</t>
   </si>
 </sst>
 </file>
@@ -1050,27 +1050,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
         <v>354</v>
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>39332</v>
@@ -1210,10 +1210,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1221,10 +1221,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1">
         <v>91718</v>
@@ -1243,10 +1243,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1265,10 +1265,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,10 +1276,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
         <v>22557</v>
@@ -1320,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>6378</v>
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1364,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1375,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1386,10 +1386,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1">
         <v>47</v>
@@ -1408,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1419,10 +1419,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1430,10 +1430,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1441,10 +1441,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1452,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1463,10 +1463,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,10 +1474,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>260</v>
@@ -1496,10 +1496,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1507,10 +1507,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,10 +1518,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1">
         <v>10.1399458</v>
@@ -1540,10 +1540,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1551,10 +1551,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
@@ -1584,10 +1584,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
@@ -1606,7 +1606,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="1">
         <v>22</v>
@@ -1617,7 +1617,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1">
         <v>173</v>
@@ -1628,7 +1628,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1">
         <v>10930</v>
@@ -1639,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
@@ -1650,7 +1650,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="1">
         <v>53117</v>
@@ -1661,7 +1661,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
@@ -1672,10 +1672,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,10 +1683,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,10 +1694,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1715,6 +1715,7 @@
     <hyperlink ref="C41" r:id="rId9" xr:uid="{971F4E5A-7EAA-44BA-9922-B7E72A274B4E}"/>
     <hyperlink ref="C44" r:id="rId10" xr:uid="{45B03213-EFBB-46CD-9BC3-BE1A19C84EAE}"/>
     <hyperlink ref="C46" r:id="rId11" xr:uid="{E7DA0AB2-F811-4658-9980-D0AFB43F2579}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{09507338-F09B-49C0-ABB2-D597E0FB0DE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF980D1-25EA-46F1-93ED-D7ED80204358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD91C65F-E4C2-4727-9F56-161DBFA7A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,9 +451,6 @@
     <t>https://hub.docker.com/repository/docker/telvinvarghese/py-hello/general</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api</t>
-  </si>
-  <si>
     <t>import httpx
 model = "gpt-4o-mini"
 messages = [
@@ -561,12 +558,6 @@
     return (phrase1, phrase2)</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/similarity</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:9000/execute</t>
-  </si>
-  <si>
     <t>Once upon a time in the peaceful village of Serene Hollow, there lived a young girl named Yes. She was a curious soul, full of wonder and questions, always seeking to understand the world around her. Unlike the other villagers, who often spoke in cautious tones and muted answers, Yes had a way of embracing life with an unyielding openness.
 One day, while wandering through the dense forest near her home, Yes came upon an old, forgotten stone path. The stones were worn by time, covered in moss, but there was a peculiar warmth to the air around them, as if the path itself invited her forward. She walked along the trail, her boots crunching softly against the earth, when she suddenly heard a rustling in the bushes ahead.
 Out from the underbrush emerged an old man, his hair as white as snow and his cloak made of patchwork fabric. He had a knowing smile, as if he’d been waiting for her. “Ah, Yes,” he said warmly, “I’ve been expecting you.”
@@ -579,9 +570,6 @@
   </si>
   <si>
     <t>[{"id":"tt20221436","title":"1. Emilia Pérez","year":"2024","rating":"5.6"},{"id":"tt21227864","title":"2. You're Cordially Invited","year":"2025","rating":"5.5"},{"id":"tt9603060","title":"3. Star Trek: Section 31","year":"2025","rating":"3.8"},{"id":"tt21191806","title":"4. Back in Action","year":"2025","rating":"5.9"},{"id":"tt10078772","title":"5. Flight Risk","year":"2025","rating":"5.5"},{"id":"tt22475008","title":"6. Watson","year":"2024– ","rating":"4.6"},{"id":"tt32214413","title":"7. The Wedding Banquet","year":"2025","rating":"4.5"},{"id":"tt4216984","title":"8. Wolf Man","year":"2025","rating":"5.7"},{"id":"tt12810074","title":"9. Nightbitch","year":"2024","rating":"5.6"},{"id":"tt0327785","title":"10. The Killer's Game","year":"2024","rating":"5.7"},{"id":"tt22804850","title":"11. The Sand Castle","year":"2024","rating":"4.7"},{"id":"tt8790086","title":"12. Kraven the Hunter","year":"2024","rating":"5.4"},{"id":"tt27618837","title":"13. The Castaways","year":"2023","rating":"5.8"},{"id":"tt16366836","title":"14. Venom: The Last Dance","year":"2024","rating":"6.0"},{"id":"tt30292390","title":"15. Sebastian Fitzeks Der Heimweg","year":"2024","rating":"5.5"},{"id":"tt24871974","title":"16. Subservience","year":"2024","rating":"5.4"},{"id":"tt31812476","title":"17. Beast Games","year":"2024– ","rating":"5.2"},{"id":"tt22939186","title":"18. Arcadian","year":"2024","rating":"5.5"},{"id":"tt10365998","title":"19. Infinity Pool","year":"2023","rating":"6.0"},{"id":"tt11162260","title":"20. Grafted","year":"2024","rating":"5.7"},{"id":"tt32138452","title":"21. Ad Vitam","year":"2025","rating":"5.9"},{"id":"tt7787524","title":"22. Henry Danger: The Movie","year":"2025","rating":"5.0"},{"id":"tt30788842","title":"23. Love Hurts","year":"2025","rating":"5.4"},{"id":"tt35256070","title":"24. Kibic","year":"2025– ","rating":"5.9"},{"id":"tt0073650","title":"25. Salò o le 120 giornate di Sodoma","year":"1975","rating":"5.8"}]</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/outline</t>
   </si>
   <si>
     <t>{"2025-02-08":"Sunny and a gentle breeze","2025-02-09":"Sunny and a gentle breeze","2025-02-10":"Sunny and a gentle breeze","2025-02-11":"Sunny and a moderate breeze","2025-02-12":"Sunny and light winds","2025-02-13":"Sunny and a gentle breeze","2025-02-14":"Sunny and a gentle breeze","2025-02-15":"Sunny and a gentle breeze","2025-02-16":"Sunny and a gentle breeze","2025-02-17":"Sunny and a moderate breeze","2025-02-18":"Sunny and a moderate breeze","2025-02-19":"Sunny and a moderate breeze","2025-02-20":"Sunny and a gentle breeze","2025-02-21":"Sunny and a gentle breeze"}</t>
@@ -686,6 +674,18 @@
   </si>
   <si>
     <t>Sort this JSON array of objects by the value of the</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:9000/api</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:10000/similarity</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:11000/execute</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:12000/api/outline</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,13 +1064,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
@@ -1367,7 +1367,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
@@ -1584,10 +1584,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
@@ -1639,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
@@ -1661,7 +1661,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
@@ -1675,7 +1675,7 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD91C65F-E4C2-4727-9F56-161DBFA7A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F71A1-9069-4715-BD05-795E32EC6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,13 +679,13 @@
     <t>http://127.0.0.1:9000/api</t>
   </si>
   <si>
-    <t>http://127.0.0.1:10000/similarity</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:11000/execute</t>
   </si>
   <si>
-    <t>http://127.0.0.1:12000/api/outline</t>
+    <t>https://tds-ga3-7.vercel.app/similarity</t>
+  </si>
+  <si>
+    <t>https://tds-ga4-3.vercel.app/api/outline</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1455,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F71A1-9069-4715-BD05-795E32EC6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046193E-C469-418A-94C1-B69CEE5685EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,16 +676,16 @@
     <t>Sort this JSON array of objects by the value of the</t>
   </si>
   <si>
-    <t>http://127.0.0.1:9000/api</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:11000/execute</t>
-  </si>
-  <si>
     <t>https://tds-ga3-7.vercel.app/similarity</t>
   </si>
   <si>
     <t>https://tds-ga4-3.vercel.app/api/outline</t>
+  </si>
+  <si>
+    <t>https://tds-ga2-9.vercel.app/api</t>
+  </si>
+  <si>
+    <t>https://tds-ga3-8.vercel.app/execute</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1367,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046193E-C469-418A-94C1-B69CEE5685EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51184DE1-E702-4625-AE79-F0F277844547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>GA1.1</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>d3b954a1c826d6414a666e74ffb23a0408c6f263447d83f5b3c762ac3e24c938</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Telvinvarghese/GA1/main/email.json</t>
   </si>
   <si>
     <t>66435d5c93604bb544462eb87abca13621bb5687d95a4fb6d272ca21a67d9367</t>
@@ -442,9 +439,6 @@
     <t>https://telvinvarghese.github.io/website/</t>
   </si>
   <si>
-    <t>https://github.com/Telvinvarghese/TDS</t>
-  </si>
-  <si>
     <t>https://api-git-main-telvinvargheses-projects.vercel.app/api</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>appear as a key?</t>
   </si>
   <si>
-    <t>https://daeb-2409-4072-6e45-1953-c9d6-9624-b787-cecb.ngrok-free.app/</t>
-  </si>
-  <si>
     <t>marks of students who scored</t>
   </si>
   <si>
@@ -686,6 +677,12 @@
   </si>
   <si>
     <t>https://tds-ga3-8.vercel.app/execute</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Telvinvarghese/test/main/email.json</t>
+  </si>
+  <si>
+    <t>https://3db5-223-178-84-140.ngrok-free.app/</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1100,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
@@ -1213,7 +1210,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1224,7 +1221,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,7 +1243,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,7 +1265,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1276,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1287,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,7 +1298,7 @@
         <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1334,7 +1331,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1345,7 +1342,7 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,7 +1353,7 @@
         <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1367,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1389,7 +1386,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1422,7 +1419,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1433,7 +1430,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1444,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1455,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1466,7 +1463,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,7 +1474,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,7 +1496,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1510,7 +1507,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,7 +1518,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1543,7 +1540,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1554,7 +1551,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,7 +1562,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
@@ -1584,10 +1581,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
@@ -1639,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
@@ -1661,7 +1658,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
@@ -1675,7 +1672,7 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1683,7 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1697,7 +1694,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51184DE1-E702-4625-AE79-F0F277844547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD49FC-5062-4F25-9A91-285D33986BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,9 +575,6 @@
     <t>2025-01-24T11:31:25Z</t>
   </si>
   <si>
-    <t>https://github.com/Telvinvarghese/test</t>
-  </si>
-  <si>
     <t>Adversus amissio vir theca tutamen assumenda delectus cinis congregatio acies.
 # Blandior cavus vilicus ea spectaculum
 ```bash
@@ -682,7 +679,10 @@
     <t>https://raw.githubusercontent.com/Telvinvarghese/test/main/email.json</t>
   </si>
   <si>
-    <t>https://3db5-223-178-84-140.ngrok-free.app/</t>
+    <t>https://github.com/Telvinvarghese/Test</t>
+  </si>
+  <si>
+    <t>https://90ae-223-178-84-140.ngrok-free.app/</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
@@ -1210,7 +1210,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,7 +1507,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
@@ -1581,10 +1581,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
@@ -1658,7 +1658,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
@@ -1672,7 +1672,7 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1703,16 +1703,15 @@
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{BB53F4EC-0ECB-4A2F-BB2E-2CE1350ECE8B}"/>
     <hyperlink ref="C22" r:id="rId2" xr:uid="{FB020E68-40A1-4737-B0CD-470B22BB6C09}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{B369F96C-1731-46A9-8DF6-D70CD22E392E}"/>
-    <hyperlink ref="C25" r:id="rId4" xr:uid="{0D52E74A-7DFE-4F3C-BBD2-EB06803574DB}"/>
-    <hyperlink ref="C27" r:id="rId5" xr:uid="{2A33251B-6257-469F-A58E-8B4B5D215ADD}"/>
-    <hyperlink ref="C28" r:id="rId6" xr:uid="{7E77FF69-9496-4FED-9F42-3565F31B4D07}"/>
-    <hyperlink ref="C36" r:id="rId7" xr:uid="{D92AC1F2-301D-43A2-9791-6E2D0D4D20E6}"/>
-    <hyperlink ref="C37" r:id="rId8" xr:uid="{6F624D4C-1E44-462C-8412-422F32E3DFA0}"/>
-    <hyperlink ref="C41" r:id="rId9" xr:uid="{971F4E5A-7EAA-44BA-9922-B7E72A274B4E}"/>
-    <hyperlink ref="C44" r:id="rId10" xr:uid="{45B03213-EFBB-46CD-9BC3-BE1A19C84EAE}"/>
-    <hyperlink ref="C46" r:id="rId11" xr:uid="{E7DA0AB2-F811-4658-9980-D0AFB43F2579}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{09507338-F09B-49C0-ABB2-D597E0FB0DE1}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{0D52E74A-7DFE-4F3C-BBD2-EB06803574DB}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{2A33251B-6257-469F-A58E-8B4B5D215ADD}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{7E77FF69-9496-4FED-9F42-3565F31B4D07}"/>
+    <hyperlink ref="C36" r:id="rId6" xr:uid="{D92AC1F2-301D-43A2-9791-6E2D0D4D20E6}"/>
+    <hyperlink ref="C37" r:id="rId7" xr:uid="{6F624D4C-1E44-462C-8412-422F32E3DFA0}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{971F4E5A-7EAA-44BA-9922-B7E72A274B4E}"/>
+    <hyperlink ref="C44" r:id="rId9" xr:uid="{45B03213-EFBB-46CD-9BC3-BE1A19C84EAE}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{E7DA0AB2-F811-4658-9980-D0AFB43F2579}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{2030727C-D338-4347-86F8-2EB0F7694CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD49FC-5062-4F25-9A91-285D33986BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9973375-D328-40D6-B3B5-FAC300B234BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
     <t>https://github.com/Telvinvarghese/Test</t>
   </si>
   <si>
-    <t>https://90ae-223-178-84-140.ngrok-free.app/</t>
+    <t>https://b45f-223-178-84-140.ngrok-free.app/</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,6 +1712,7 @@
     <hyperlink ref="C44" r:id="rId9" xr:uid="{45B03213-EFBB-46CD-9BC3-BE1A19C84EAE}"/>
     <hyperlink ref="C46" r:id="rId10" xr:uid="{E7DA0AB2-F811-4658-9980-D0AFB43F2579}"/>
     <hyperlink ref="C26" r:id="rId11" xr:uid="{2030727C-D338-4347-86F8-2EB0F7694CEF}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{82DEFC47-F8CE-4F38-BCF3-96D60DBBB9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9973375-D328-40D6-B3B5-FAC300B234BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C0D0A-6072-4A55-9CD2-B107118E5CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,6 @@
     <t>FILE UPLOAD</t>
   </si>
   <si>
-    <t>https://telvinvarghese.github.io/website/</t>
-  </si>
-  <si>
     <t>https://api-git-main-telvinvargheses-projects.vercel.app/api</t>
   </si>
   <si>
@@ -683,6 +680,9 @@
   </si>
   <si>
     <t>https://b45f-223-178-84-140.ngrok-free.app/</t>
+  </si>
+  <si>
+    <t>https://telvinvarghese.github.io/website/?v=2</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
@@ -1210,7 +1210,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1353,7 @@
         <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1507,7 +1507,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1540,7 +1540,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
@@ -1581,10 +1581,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
@@ -1658,7 +1658,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
@@ -1672,7 +1672,7 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
